--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H2">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>490.021123318345</v>
+        <v>550.3824766666668</v>
       </c>
       <c r="N2">
-        <v>490.021123318345</v>
+        <v>1651.14743</v>
       </c>
       <c r="O2">
-        <v>0.6009291716231846</v>
+        <v>0.6168403739221149</v>
       </c>
       <c r="P2">
-        <v>0.6009291716231846</v>
+        <v>0.616840373922115</v>
       </c>
       <c r="Q2">
-        <v>37958.61913510274</v>
+        <v>58824.10288338042</v>
       </c>
       <c r="R2">
-        <v>37958.61913510274</v>
+        <v>529416.9259504237</v>
       </c>
       <c r="S2">
-        <v>0.07131063679592888</v>
+        <v>0.09306568673154669</v>
       </c>
       <c r="T2">
-        <v>0.07131063679592888</v>
+        <v>0.09306568673154671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H3">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>216.739038472724</v>
+        <v>218.1244046666667</v>
       </c>
       <c r="N3">
-        <v>216.739038472724</v>
+        <v>654.373214</v>
       </c>
       <c r="O3">
-        <v>0.2657942783482933</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="P3">
-        <v>0.2657942783482933</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="Q3">
-        <v>16789.30605558757</v>
+        <v>23312.82874265462</v>
       </c>
       <c r="R3">
-        <v>16789.30605558757</v>
+        <v>209815.4586838915</v>
       </c>
       <c r="S3">
-        <v>0.03154108693797334</v>
+        <v>0.03688325550652939</v>
       </c>
       <c r="T3">
-        <v>0.03154108693797334</v>
+        <v>0.03688325550652939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H4">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.09688419632338</v>
+        <v>0.451923</v>
       </c>
       <c r="N4">
-        <v>2.09688419632338</v>
+        <v>1.355769</v>
       </c>
       <c r="O4">
-        <v>0.002571478703924644</v>
+        <v>0.0005064920562011907</v>
       </c>
       <c r="P4">
-        <v>0.002571478703924644</v>
+        <v>0.0005064920562011908</v>
       </c>
       <c r="Q4">
-        <v>162.4314234448746</v>
+        <v>48.30089287792899</v>
       </c>
       <c r="R4">
-        <v>162.4314234448746</v>
+        <v>434.708035901361</v>
       </c>
       <c r="S4">
-        <v>0.0003051504113017525</v>
+        <v>7.641690302261035E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003051504113017525</v>
+        <v>7.641690302261036E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H5">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I5">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J5">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>106.582021473315</v>
+        <v>1.091144</v>
       </c>
       <c r="N5">
-        <v>106.582021473315</v>
+        <v>3.273432</v>
       </c>
       <c r="O5">
-        <v>0.1307050713245975</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="P5">
-        <v>0.1307050713245975</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="Q5">
-        <v>8256.187676886309</v>
+        <v>116.6199318432453</v>
       </c>
       <c r="R5">
-        <v>8256.187676886309</v>
+        <v>1049.579386589208</v>
       </c>
       <c r="S5">
-        <v>0.01551041671589695</v>
+        <v>0.0001845045400028393</v>
       </c>
       <c r="T5">
-        <v>0.01551041671589695</v>
+        <v>0.0001845045400028393</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>76.9701855606306</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H6">
-        <v>76.9701855606306</v>
+        <v>320.635769</v>
       </c>
       <c r="I6">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J6">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>490.021123318345</v>
+        <v>2.325947</v>
       </c>
       <c r="N6">
-        <v>490.021123318345</v>
+        <v>6.977841</v>
       </c>
       <c r="O6">
-        <v>0.6009291716231846</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="P6">
-        <v>0.6009291716231846</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="Q6">
-        <v>37717.01679044167</v>
+        <v>248.5939349994143</v>
       </c>
       <c r="R6">
-        <v>37717.01679044167</v>
+        <v>2237.345414994729</v>
       </c>
       <c r="S6">
-        <v>0.07085675260725884</v>
+        <v>0.0003933007754301761</v>
       </c>
       <c r="T6">
-        <v>0.07085675260725884</v>
+        <v>0.0003933007754301761</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>76.9701855606306</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H7">
-        <v>76.9701855606306</v>
+        <v>320.635769</v>
       </c>
       <c r="I7">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J7">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>216.739038472724</v>
+        <v>119.8848903333333</v>
       </c>
       <c r="N7">
-        <v>216.739038472724</v>
+        <v>359.654671</v>
       </c>
       <c r="O7">
-        <v>0.2657942783482933</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="P7">
-        <v>0.2657942783482933</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="Q7">
-        <v>16682.44400947822</v>
+        <v>12813.12800116967</v>
       </c>
       <c r="R7">
-        <v>16682.44400947822</v>
+        <v>115318.152010527</v>
       </c>
       <c r="S7">
-        <v>0.03134033146448652</v>
+        <v>0.02027166583351281</v>
       </c>
       <c r="T7">
-        <v>0.03134033146448652</v>
+        <v>0.02027166583351282</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H8">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J8">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.09688419632338</v>
+        <v>550.3824766666668</v>
       </c>
       <c r="N8">
-        <v>2.09688419632338</v>
+        <v>1651.14743</v>
       </c>
       <c r="O8">
-        <v>0.002571478703924644</v>
+        <v>0.6168403739221149</v>
       </c>
       <c r="P8">
-        <v>0.002571478703924644</v>
+        <v>0.616840373922115</v>
       </c>
       <c r="Q8">
-        <v>161.3975656901643</v>
+        <v>42507.64744094597</v>
       </c>
       <c r="R8">
-        <v>161.3975656901643</v>
+        <v>382568.8269685137</v>
       </c>
       <c r="S8">
-        <v>0.0003032081632293874</v>
+        <v>0.06725140217228541</v>
       </c>
       <c r="T8">
-        <v>0.0003032081632293874</v>
+        <v>0.06725140217228544</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H9">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J9">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.582021473315</v>
+        <v>218.1244046666667</v>
       </c>
       <c r="N9">
-        <v>106.582021473315</v>
+        <v>654.373214</v>
       </c>
       <c r="O9">
-        <v>0.1307050713245975</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="P9">
-        <v>0.1307050713245975</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="Q9">
-        <v>8203.63797022817</v>
+        <v>16846.38535004151</v>
       </c>
       <c r="R9">
-        <v>8203.63797022817</v>
+        <v>151617.4681503735</v>
       </c>
       <c r="S9">
-        <v>0.01541169465670155</v>
+        <v>0.02665268732876565</v>
       </c>
       <c r="T9">
-        <v>0.01541169465670155</v>
+        <v>0.02665268732876566</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H10">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I10">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J10">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>490.021123318345</v>
+        <v>0.451923</v>
       </c>
       <c r="N10">
-        <v>490.021123318345</v>
+        <v>1.355769</v>
       </c>
       <c r="O10">
-        <v>0.6009291716231846</v>
+        <v>0.0005064920562011907</v>
       </c>
       <c r="P10">
-        <v>0.6009291716231846</v>
+        <v>0.0005064920562011908</v>
       </c>
       <c r="Q10">
-        <v>59641.20111779904</v>
+        <v>34.903334260929</v>
       </c>
       <c r="R10">
-        <v>59641.20111779904</v>
+        <v>314.130008348361</v>
       </c>
       <c r="S10">
-        <v>0.1120444349107327</v>
+        <v>5.52206087809598E-05</v>
       </c>
       <c r="T10">
-        <v>0.1120444349107327</v>
+        <v>5.522060878095982E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H11">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I11">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J11">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>216.739038472724</v>
+        <v>1.091144</v>
       </c>
       <c r="N11">
-        <v>216.739038472724</v>
+        <v>3.273432</v>
       </c>
       <c r="O11">
-        <v>0.2657942783482933</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="P11">
-        <v>0.2657942783482933</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="Q11">
-        <v>26379.63134342739</v>
+        <v>84.27224053391201</v>
       </c>
       <c r="R11">
-        <v>26379.63134342739</v>
+        <v>758.450164805208</v>
       </c>
       <c r="S11">
-        <v>0.04955786992267152</v>
+        <v>0.0001333272171314397</v>
       </c>
       <c r="T11">
-        <v>0.04955786992267152</v>
+        <v>0.0001333272171314397</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H12">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I12">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J12">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.09688419632338</v>
+        <v>2.325947</v>
       </c>
       <c r="N12">
-        <v>2.09688419632338</v>
+        <v>6.977841</v>
       </c>
       <c r="O12">
-        <v>0.002571478703924644</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="P12">
-        <v>0.002571478703924644</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="Q12">
-        <v>255.2149001797433</v>
+        <v>179.639685553081</v>
       </c>
       <c r="R12">
-        <v>255.2149001797433</v>
+        <v>1616.757169977729</v>
       </c>
       <c r="S12">
-        <v>0.0004794573002471697</v>
+        <v>0.0002842081711535971</v>
       </c>
       <c r="T12">
-        <v>0.0004794573002471697</v>
+        <v>0.0002842081711535972</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H13">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I13">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J13">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>106.582021473315</v>
+        <v>119.8848903333333</v>
       </c>
       <c r="N13">
-        <v>106.582021473315</v>
+        <v>359.654671</v>
       </c>
       <c r="O13">
-        <v>0.1307050713245975</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="P13">
-        <v>0.1307050713245975</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="Q13">
-        <v>12972.25665535627</v>
+        <v>9259.060503977777</v>
       </c>
       <c r="R13">
-        <v>12972.25665535627</v>
+        <v>83331.5445358</v>
       </c>
       <c r="S13">
-        <v>0.02437021956676554</v>
+        <v>0.01464877120183144</v>
       </c>
       <c r="T13">
-        <v>0.02437021956676554</v>
+        <v>0.01464877120183144</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H14">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I14">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J14">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>490.021123318345</v>
+        <v>550.3824766666668</v>
       </c>
       <c r="N14">
-        <v>490.021123318345</v>
+        <v>1651.14743</v>
       </c>
       <c r="O14">
-        <v>0.6009291716231846</v>
+        <v>0.6168403739221149</v>
       </c>
       <c r="P14">
-        <v>0.6009291716231846</v>
+        <v>0.616840373922115</v>
       </c>
       <c r="Q14">
-        <v>68782.68076377542</v>
+        <v>75224.26085978799</v>
       </c>
       <c r="R14">
-        <v>68782.68076377542</v>
+        <v>677018.3477380918</v>
       </c>
       <c r="S14">
-        <v>0.1292179978501907</v>
+        <v>0.1190123971744772</v>
       </c>
       <c r="T14">
-        <v>0.1292179978501907</v>
+        <v>0.1190123971744772</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H15">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I15">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J15">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>216.739038472724</v>
+        <v>218.1244046666667</v>
       </c>
       <c r="N15">
-        <v>216.739038472724</v>
+        <v>654.373214</v>
       </c>
       <c r="O15">
-        <v>0.2657942783482933</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="P15">
-        <v>0.2657942783482933</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="Q15">
-        <v>30422.95807854801</v>
+        <v>29812.44464014571</v>
       </c>
       <c r="R15">
-        <v>30422.95807854801</v>
+        <v>268312.0017613114</v>
       </c>
       <c r="S15">
-        <v>0.05715383128336328</v>
+        <v>0.04716630594574291</v>
       </c>
       <c r="T15">
-        <v>0.05715383128336328</v>
+        <v>0.04716630594574292</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H16">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I16">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J16">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.09688419632338</v>
+        <v>0.451923</v>
       </c>
       <c r="N16">
-        <v>2.09688419632338</v>
+        <v>1.355769</v>
       </c>
       <c r="O16">
-        <v>0.002571478703924644</v>
+        <v>0.0005064920562011907</v>
       </c>
       <c r="P16">
-        <v>0.002571478703924644</v>
+        <v>0.0005064920562011908</v>
       </c>
       <c r="Q16">
-        <v>294.3328550769789</v>
+        <v>61.76718024605101</v>
       </c>
       <c r="R16">
-        <v>294.3328550769789</v>
+        <v>555.904622214459</v>
       </c>
       <c r="S16">
-        <v>0.0005529459133062428</v>
+        <v>9.772193310735658E-05</v>
       </c>
       <c r="T16">
-        <v>0.0005529459133062428</v>
+        <v>9.77219331073566E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H17">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I17">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J17">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>106.582021473315</v>
+        <v>1.091144</v>
       </c>
       <c r="N17">
-        <v>106.582021473315</v>
+        <v>3.273432</v>
       </c>
       <c r="O17">
-        <v>0.1307050713245975</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="P17">
-        <v>0.1307050713245975</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="Q17">
-        <v>14960.57375754036</v>
+        <v>149.133565059528</v>
       </c>
       <c r="R17">
-        <v>14960.57375754036</v>
+        <v>1342.202085535752</v>
       </c>
       <c r="S17">
-        <v>0.02810555456945175</v>
+        <v>0.0002359443997727345</v>
       </c>
       <c r="T17">
-        <v>0.02810555456945175</v>
+        <v>0.0002359443997727345</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>194.159493575321</v>
+        <v>136.676337</v>
       </c>
       <c r="H18">
-        <v>194.159493575321</v>
+        <v>410.029011</v>
       </c>
       <c r="I18">
-        <v>0.2974363579169756</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J18">
-        <v>0.2974363579169756</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>490.021123318345</v>
+        <v>2.325947</v>
       </c>
       <c r="N18">
-        <v>490.021123318345</v>
+        <v>6.977841</v>
       </c>
       <c r="O18">
-        <v>0.6009291716231846</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="P18">
-        <v>0.6009291716231846</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="Q18">
-        <v>95142.25314469979</v>
+        <v>317.901916016139</v>
       </c>
       <c r="R18">
-        <v>95142.25314469979</v>
+        <v>2861.117244145251</v>
       </c>
       <c r="S18">
-        <v>0.1787381841736652</v>
+        <v>0.0005029530188666138</v>
       </c>
       <c r="T18">
-        <v>0.1787381841736652</v>
+        <v>0.0005029530188666139</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>194.159493575321</v>
+        <v>136.676337</v>
       </c>
       <c r="H19">
-        <v>194.159493575321</v>
+        <v>410.029011</v>
       </c>
       <c r="I19">
-        <v>0.2974363579169756</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J19">
-        <v>0.2974363579169756</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>216.739038472724</v>
+        <v>119.8848903333333</v>
       </c>
       <c r="N19">
-        <v>216.739038472724</v>
+        <v>359.654671</v>
       </c>
       <c r="O19">
-        <v>0.2657942783482933</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="P19">
-        <v>0.2657942783482933</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="Q19">
-        <v>42081.9419478661</v>
+        <v>16385.42767240671</v>
       </c>
       <c r="R19">
-        <v>42081.9419478661</v>
+        <v>147468.8490516604</v>
       </c>
       <c r="S19">
-        <v>0.07905688210708722</v>
+        <v>0.02592340561055043</v>
       </c>
       <c r="T19">
-        <v>0.07905688210708722</v>
+        <v>0.02592340561055043</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H20">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I20">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J20">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.09688419632338</v>
+        <v>550.3824766666668</v>
       </c>
       <c r="N20">
-        <v>2.09688419632338</v>
+        <v>1651.14743</v>
       </c>
       <c r="O20">
-        <v>0.002571478703924644</v>
+        <v>0.6168403739221149</v>
       </c>
       <c r="P20">
-        <v>0.002571478703924644</v>
+        <v>0.616840373922115</v>
       </c>
       <c r="Q20">
-        <v>407.1299736442414</v>
+        <v>78955.51373175657</v>
       </c>
       <c r="R20">
-        <v>407.1299736442414</v>
+        <v>710599.6235858091</v>
       </c>
       <c r="S20">
-        <v>0.0007648512601564112</v>
+        <v>0.1249156170091637</v>
       </c>
       <c r="T20">
-        <v>0.0007648512601564112</v>
+        <v>0.1249156170091637</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H21">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I21">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J21">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>106.582021473315</v>
+        <v>218.1244046666667</v>
       </c>
       <c r="N21">
-        <v>106.582021473315</v>
+        <v>654.373214</v>
       </c>
       <c r="O21">
-        <v>0.1307050713245975</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="P21">
-        <v>0.1307050713245975</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="Q21">
-        <v>20693.91131349283</v>
+        <v>31291.19323019548</v>
       </c>
       <c r="R21">
-        <v>20693.91131349283</v>
+        <v>281620.7390717593</v>
       </c>
       <c r="S21">
-        <v>0.0388764403760668</v>
+        <v>0.04950583593924105</v>
       </c>
       <c r="T21">
-        <v>0.0388764403760668</v>
+        <v>0.04950583593924106</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>42.1054306722281</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H22">
-        <v>42.1054306722281</v>
+        <v>430.367156</v>
       </c>
       <c r="I22">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J22">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>490.021123318345</v>
+        <v>0.451923</v>
       </c>
       <c r="N22">
-        <v>490.021123318345</v>
+        <v>1.355769</v>
       </c>
       <c r="O22">
-        <v>0.6009291716231846</v>
+        <v>0.0005064920562011907</v>
       </c>
       <c r="P22">
-        <v>0.6009291716231846</v>
+        <v>0.0005064920562011908</v>
       </c>
       <c r="Q22">
-        <v>20632.55043580791</v>
+        <v>64.830938746996</v>
       </c>
       <c r="R22">
-        <v>20632.55043580791</v>
+        <v>583.478448722964</v>
       </c>
       <c r="S22">
-        <v>0.03876116528540836</v>
+        <v>0.0001025691092629426</v>
       </c>
       <c r="T22">
-        <v>0.03876116528540836</v>
+        <v>0.0001025691092629426</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>42.1054306722281</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H23">
-        <v>42.1054306722281</v>
+        <v>430.367156</v>
       </c>
       <c r="I23">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J23">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>216.739038472724</v>
+        <v>1.091144</v>
       </c>
       <c r="N23">
-        <v>216.739038472724</v>
+        <v>3.273432</v>
       </c>
       <c r="O23">
-        <v>0.2657942783482933</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="P23">
-        <v>0.2657942783482933</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="Q23">
-        <v>9125.89055837866</v>
+        <v>156.5308466888213</v>
       </c>
       <c r="R23">
-        <v>9125.89055837866</v>
+        <v>1408.777620199392</v>
       </c>
       <c r="S23">
-        <v>0.01714427663271149</v>
+        <v>0.0002476476482887665</v>
       </c>
       <c r="T23">
-        <v>0.01714427663271149</v>
+        <v>0.0002476476482887665</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>42.1054306722281</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H24">
-        <v>42.1054306722281</v>
+        <v>430.367156</v>
       </c>
       <c r="I24">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J24">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.09688419632338</v>
+        <v>2.325947</v>
       </c>
       <c r="N24">
-        <v>2.09688419632338</v>
+        <v>6.977841</v>
       </c>
       <c r="O24">
-        <v>0.002571478703924644</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="P24">
-        <v>0.002571478703924644</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="Q24">
-        <v>88.29021215598482</v>
+        <v>333.6703984655773</v>
       </c>
       <c r="R24">
-        <v>88.29021215598482</v>
+        <v>3003.033586190196</v>
       </c>
       <c r="S24">
-        <v>0.000165865655683681</v>
+        <v>0.0005279003546684137</v>
       </c>
       <c r="T24">
-        <v>0.000165865655683681</v>
+        <v>0.0005279003546684138</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>42.1054306722281</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H25">
-        <v>42.1054306722281</v>
+        <v>430.367156</v>
       </c>
       <c r="I25">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J25">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>106.582021473315</v>
+        <v>119.8848903333333</v>
       </c>
       <c r="N25">
-        <v>106.582021473315</v>
+        <v>359.654671</v>
       </c>
       <c r="O25">
-        <v>0.1307050713245975</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="P25">
-        <v>0.1307050713245975</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="Q25">
-        <v>4487.681916050591</v>
+        <v>17198.17310004285</v>
       </c>
       <c r="R25">
-        <v>4487.681916050591</v>
+        <v>154783.5579003857</v>
       </c>
       <c r="S25">
-        <v>0.008430745439714891</v>
+        <v>0.02720925116795462</v>
       </c>
       <c r="T25">
-        <v>0.008430745439714891</v>
+        <v>0.02720925116795463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H26">
+        <v>595.794632</v>
+      </c>
+      <c r="I26">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J26">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>550.3824766666668</v>
+      </c>
+      <c r="N26">
+        <v>1651.14743</v>
+      </c>
+      <c r="O26">
+        <v>0.6168403739221149</v>
+      </c>
+      <c r="P26">
+        <v>0.616840373922115</v>
+      </c>
+      <c r="Q26">
+        <v>109304.9750482884</v>
+      </c>
+      <c r="R26">
+        <v>983744.7754345959</v>
+      </c>
+      <c r="S26">
+        <v>0.1729315377101584</v>
+      </c>
+      <c r="T26">
+        <v>0.1729315377101585</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H27">
+        <v>595.794632</v>
+      </c>
+      <c r="I27">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J27">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>218.1244046666667</v>
+      </c>
+      <c r="N27">
+        <v>654.373214</v>
+      </c>
+      <c r="O27">
+        <v>0.2444626147093213</v>
+      </c>
+      <c r="P27">
+        <v>0.2444626147093213</v>
+      </c>
+      <c r="Q27">
+        <v>43319.11646953192</v>
+      </c>
+      <c r="R27">
+        <v>389872.0482257872</v>
+      </c>
+      <c r="S27">
+        <v>0.06853522833715615</v>
+      </c>
+      <c r="T27">
+        <v>0.06853522833715615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H28">
+        <v>595.794632</v>
+      </c>
+      <c r="I28">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J28">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.451923</v>
+      </c>
+      <c r="N28">
+        <v>1.355769</v>
+      </c>
+      <c r="O28">
+        <v>0.0005064920562011907</v>
+      </c>
+      <c r="P28">
+        <v>0.0005064920562011908</v>
+      </c>
+      <c r="Q28">
+        <v>89.751099159112</v>
+      </c>
+      <c r="R28">
+        <v>807.759892432008</v>
+      </c>
+      <c r="S28">
+        <v>0.0001419953262137008</v>
+      </c>
+      <c r="T28">
+        <v>0.0001419953262137009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H29">
+        <v>595.794632</v>
+      </c>
+      <c r="I29">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J29">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>1.091144</v>
+      </c>
+      <c r="N29">
+        <v>3.273432</v>
+      </c>
+      <c r="O29">
+        <v>0.001222898078149579</v>
+      </c>
+      <c r="P29">
+        <v>0.001222898078149579</v>
+      </c>
+      <c r="Q29">
+        <v>216.6992459796693</v>
+      </c>
+      <c r="R29">
+        <v>1950.293213817024</v>
+      </c>
+      <c r="S29">
+        <v>0.0003428401480476152</v>
+      </c>
+      <c r="T29">
+        <v>0.0003428401480476152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H30">
+        <v>595.794632</v>
+      </c>
+      <c r="I30">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J30">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.325947</v>
+      </c>
+      <c r="N30">
+        <v>6.977841</v>
+      </c>
+      <c r="O30">
+        <v>0.002606801775180708</v>
+      </c>
+      <c r="P30">
+        <v>0.002606801775180708</v>
+      </c>
+      <c r="Q30">
+        <v>461.9289123055013</v>
+      </c>
+      <c r="R30">
+        <v>4157.360210749512</v>
+      </c>
+      <c r="S30">
+        <v>0.0007308183098022866</v>
+      </c>
+      <c r="T30">
+        <v>0.0007308183098022867</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H31">
+        <v>595.794632</v>
+      </c>
+      <c r="I31">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J31">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>119.8848903333333</v>
+      </c>
+      <c r="N31">
+        <v>359.654671</v>
+      </c>
+      <c r="O31">
+        <v>0.1343608194590323</v>
+      </c>
+      <c r="P31">
+        <v>0.1343608194590323</v>
+      </c>
+      <c r="Q31">
+        <v>23808.92470616956</v>
+      </c>
+      <c r="R31">
+        <v>214280.3223555261</v>
+      </c>
+      <c r="S31">
+        <v>0.03766812955077616</v>
+      </c>
+      <c r="T31">
+        <v>0.03766812955077617</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H32">
+        <v>136.651993</v>
+      </c>
+      <c r="I32">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J32">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>550.3824766666668</v>
+      </c>
+      <c r="N32">
+        <v>1651.14743</v>
+      </c>
+      <c r="O32">
+        <v>0.6168403739221149</v>
+      </c>
+      <c r="P32">
+        <v>0.616840373922115</v>
+      </c>
+      <c r="Q32">
+        <v>25070.28744959201</v>
+      </c>
+      <c r="R32">
+        <v>225632.587046328</v>
+      </c>
+      <c r="S32">
+        <v>0.03966373312448342</v>
+      </c>
+      <c r="T32">
+        <v>0.03966373312448342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H33">
+        <v>136.651993</v>
+      </c>
+      <c r="I33">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J33">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>218.1244046666667</v>
+      </c>
+      <c r="N33">
+        <v>654.373214</v>
+      </c>
+      <c r="O33">
+        <v>0.2444626147093213</v>
+      </c>
+      <c r="P33">
+        <v>0.2444626147093213</v>
+      </c>
+      <c r="Q33">
+        <v>9935.711539879501</v>
+      </c>
+      <c r="R33">
+        <v>89421.4038589155</v>
+      </c>
+      <c r="S33">
+        <v>0.01571930165188609</v>
+      </c>
+      <c r="T33">
+        <v>0.01571930165188609</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H34">
+        <v>136.651993</v>
+      </c>
+      <c r="I34">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J34">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.451923</v>
+      </c>
+      <c r="N34">
+        <v>1.355769</v>
+      </c>
+      <c r="O34">
+        <v>0.0005064920562011907</v>
+      </c>
+      <c r="P34">
+        <v>0.0005064920562011908</v>
+      </c>
+      <c r="Q34">
+        <v>20.585392877513</v>
+      </c>
+      <c r="R34">
+        <v>185.268535897617</v>
+      </c>
+      <c r="S34">
+        <v>3.256817581362056E-05</v>
+      </c>
+      <c r="T34">
+        <v>3.256817581362057E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H35">
+        <v>136.651993</v>
+      </c>
+      <c r="I35">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J35">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>1.091144</v>
+      </c>
+      <c r="N35">
+        <v>3.273432</v>
+      </c>
+      <c r="O35">
+        <v>0.001222898078149579</v>
+      </c>
+      <c r="P35">
+        <v>0.001222898078149579</v>
+      </c>
+      <c r="Q35">
+        <v>49.70233408333068</v>
+      </c>
+      <c r="R35">
+        <v>447.321006749976</v>
+      </c>
+      <c r="S35">
+        <v>7.863412490618357E-05</v>
+      </c>
+      <c r="T35">
+        <v>7.863412490618357E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H36">
+        <v>136.651993</v>
+      </c>
+      <c r="I36">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J36">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.325947</v>
+      </c>
+      <c r="N36">
+        <v>6.977841</v>
+      </c>
+      <c r="O36">
+        <v>0.002606801775180708</v>
+      </c>
+      <c r="P36">
+        <v>0.002606801775180708</v>
+      </c>
+      <c r="Q36">
+        <v>105.9484310541237</v>
+      </c>
+      <c r="R36">
+        <v>953.535879487113</v>
+      </c>
+      <c r="S36">
+        <v>0.0001676211452596201</v>
+      </c>
+      <c r="T36">
+        <v>0.0001676211452596201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H37">
+        <v>136.651993</v>
+      </c>
+      <c r="I37">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J37">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>119.8848903333333</v>
+      </c>
+      <c r="N37">
+        <v>359.654671</v>
+      </c>
+      <c r="O37">
+        <v>0.1343608194590323</v>
+      </c>
+      <c r="P37">
+        <v>0.1343608194590323</v>
+      </c>
+      <c r="Q37">
+        <v>5460.836398212145</v>
+      </c>
+      <c r="R37">
+        <v>49147.52758390931</v>
+      </c>
+      <c r="S37">
+        <v>0.008639596094406836</v>
+      </c>
+      <c r="T37">
+        <v>0.008639596094406838</v>
       </c>
     </row>
   </sheetData>
